--- a/TCC00288/src/main/sql/trabalhos/s20181/Raffael_Raphael_Luis/avaliacao.xlsx
+++ b/TCC00288/src/main/sql/trabalhos/s20181/Raffael_Raphael_Luis/avaliacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapaesleme/GitHub/lleme/TCC00288/src/main/sql/trabalhos/s20181/Raffael_Raphael_Luis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BE22A-886F-E04D-986D-0019F5E03AD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C796188-8FB1-DA4A-93BE-D1C0359AB92F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avaliacao" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>OBS.: "Algumas restrições podem ser especificadas ao SGBD e impostas automaticamente. Outras podem ter que ser verificadas por programas de atualização ou no momento da entrada de dados. Em geral, para grandes aplicações, é comum chamar essas restrições de regras de negócio." (Elmasri, Ramez. Sistemas de Bancos de Dados (Seção 1.6.8))</t>
   </si>
@@ -97,9 +97,6 @@
     <t>check_cpf</t>
   </si>
   <si>
-    <t>check_pedido</t>
-  </si>
-  <si>
     <t>check_endereco</t>
   </si>
   <si>
@@ -130,7 +127,13 @@
     <t>INSERT EM COMPRAS_PEDIDO</t>
   </si>
   <si>
-    <t>UPDATE EM PRODUTO</t>
+    <t>INSERT EM PEDIDO</t>
+  </si>
+  <si>
+    <t>UPDATE EM USUARIO</t>
+  </si>
+  <si>
+    <t>restaurante do pedido igual restaurante dos itens</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1026,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1098,9 +1101,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1170,21 +1170,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1197,47 +1239,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1596,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,30 +1626,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="20" customFormat="1" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" s="19" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="31">
-        <f>G24+G29</f>
-        <v>3.21</v>
+      <c r="G2" s="30">
+        <f>G27+G32</f>
+        <v>4.3066666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1646,30 +1658,30 @@
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -1695,404 +1707,447 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>2</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="42">
         <v>0</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="41">
+      <c r="E7" s="33"/>
+      <c r="F7" s="40">
         <v>1</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <f>B7*C7*F7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="57">
+        <v>2</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="63">
-        <v>2</v>
-      </c>
-      <c r="C11" s="72">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="71">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="64">
-        <f>B11*C11*F11</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="64"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="64"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="64"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="47">
-        <v>2</v>
-      </c>
-      <c r="C15" s="75">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="76">
-        <v>1</v>
-      </c>
-      <c r="G15" s="40">
-        <f>B15*C15*F15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="63">
-        <v>2</v>
-      </c>
-      <c r="C16" s="72">
-        <v>0.33</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="71">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="64">
-        <f>B16*C16*F16</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="64"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="63">
-        <v>2</v>
-      </c>
-      <c r="C18" s="72">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="71">
+      <c r="F11" s="59">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="G18" s="64">
-        <f>B18*C18*F18</f>
+      <c r="G11" s="60">
+        <f>B11*C11*F11</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="72"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="57">
+        <v>2</v>
+      </c>
+      <c r="C15" s="58">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="59">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="60">
+        <f>B15*C15*F15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="79"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="79"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="79"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="57">
+        <v>2</v>
+      </c>
+      <c r="C19" s="58">
+        <v>0.66</v>
+      </c>
       <c r="D19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="64"/>
-    </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="72"/>
+      <c r="E19" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="59">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G19" s="60">
+        <f>B19*C19*F19</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="78"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="64"/>
+      <c r="E20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="64"/>
+        <v>29</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="57">
+        <v>2</v>
+      </c>
+      <c r="C22" s="58">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="59">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G22" s="60">
+        <f>B22*C22*F22</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:7" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="B26" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+    </row>
+    <row r="27" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="23">
-        <f>SUM(LARGE(G7:G23,1),LARGE(G7:G23,2),LARGE(G7:G23,3))</f>
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="23">
+        <f>SUM(LARGE(G7:G26,1),LARGE(G7:G26,2),LARGE(G7:G26,3))</f>
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-    </row>
-    <row r="26" spans="1:7" ht="84" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+    </row>
+    <row r="29" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B30" s="31">
         <v>2</v>
       </c>
-      <c r="C27" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="13" t="s">
+      <c r="C30" s="22">
+        <v>0.66</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F30" s="36">
         <v>1</v>
       </c>
-      <c r="G27" s="18">
-        <f>B27*C27*F27</f>
+      <c r="G30" s="18">
+        <f>B30*C30*F30</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="32">
+        <v>2</v>
+      </c>
+      <c r="C31" s="22">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="33">
-        <v>2</v>
-      </c>
-      <c r="C28" s="22">
-        <v>0.66</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="13" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F31" s="37">
         <v>1</v>
       </c>
-      <c r="G28" s="18">
-        <f>B28*C28*F28</f>
+      <c r="G31" s="18">
+        <f>B31*C31*F31</f>
         <v>1.32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+    <row r="32" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="24">
-        <f>SUM(G27:G28)</f>
-        <v>1.98</v>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="24">
+        <f>SUM(G30:G31)</f>
+        <v>2.64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="G11:G14"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
